--- a/updated_methods.xlsx
+++ b/updated_methods.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Future Research</t>
         </is>
@@ -467,13 +472,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The YOLOv5-MHSA-DS model achieved a mean Average Precision (mAP) of 93.8%, indicating a high level of accuracy in detecting pigs compared to other models.
 - The model demonstrated a counting accuracy of 95.0%, which surpasses the performance of other models by significant margins of 12.2% and 19.0%, respectively.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,13 +495,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The improved YOLOv5n model achieved an Average Precision (AP) of 97.72%, demonstrating high identification accuracy for pig counting in complex environments, while also reducing the number of parameters by 50.57%, the amount of calculation by 32.20%, and the model size by 47.21% compared to the original YOLOv5n model.
 - The detection speed of the improved algorithm reached 75.87 frames per second (f/s), indicating that the model not only maintained accuracy and robustness in multiscene conditions but also provided efficient performance suitable for practical applications, such as a pig counting application developed for the Android system.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> - Future research could focus on further enhancing the generalization performance of the pig counting algorithm by creating even more diverse multiscene datasets that include various lighting conditions, pig breeds, and farm environments to improve accuracy in real-world applications.
 - Another area for future exploration could involve optimizing the model for deployment on other mobile platforms beyond Android, as well as adapting the algorithm for counting different types of livestock and poultry, such as cattle, sheep, and geese, to broaden its applicability in the agricultural sector.</t>
@@ -512,13 +523,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The YOLOV5_Plus model achieves an accuracy of 0.989, a recall of 0.996, mAP@.50 of 0.994, and mAP@.50:.95 of 0.796, demonstrating superior performance compared to competing models in pig detection and counting.
 - The model processes images with an inference time of only 24.1 ms per image, enabling real-time detection of pig numbers and locations, which is beneficial for enhancing smart animal husbandry and reducing labor costs in farming enterprises.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -532,13 +546,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The proposed SCS-YOLOv5 model improved the Precision from 93.2% to 95.5%, and the mean Average Precision (mAP@0.5) increased from 94.5% to 95.2%, demonstrating enhanced accuracy in cattle detection and counting.
 - The model achieved a reduction in Root Mean Square Error (RMSE) by approximately 0.03 and reached a Frames Per Second (FPS) rate of 88, indicating improved real-time performance and efficiency in complex breeding environments.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve"> - Future research could explore the application of the SCS-YOLOv5 model in various agricultural settings beyond cattle detection, such as detecting and counting other livestock or wildlife, to assess its versatility and effectiveness in different environments and conditions.
 - Investigating the integration of advanced machine learning techniques or additional sensor data (e.g., thermal imaging, drones) with the SCS-YOLOv5 model could enhance its robustness and accuracy in complex breeding scenarios, potentially leading to improved monitoring and management of livestock.</t>
@@ -557,13 +574,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The best-performing model, YOLOv4, achieved a mean average precision (mAP) of 86% and a recall value of 75%, with an error of 8.3% in counting the deer population. The compressed version, YOLOv4-tiny, had a slightly lower mAP of 83% but demonstrated four times better real-time performance, resulting in a counting error of 7.1% by mistaking 12 deer.
 - The study compared several state-of-the-art network architectures, including three versions of YOLO and a Single Shot Multibox Detector (SSD), with the results indicating that the models could detect deer with a mean average precision of up to 70.45% and a confidence score of up to 99%. The performance evaluation metrics used included precision, recall, and F1 score, highlighting the effectiveness of the models in detecting deer in a dense forest environment.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve"> - Future research will focus on extending the current models, which are trained to recognize only deer, to detect and track other types of animals. This will require sufficient training data and will involve experiments using different animal databases to enhance the versatility of the detection system.
 - Another area for future work includes increasing the resolution of input images to 512 x 512 or 608 x 608, as recommended by the authors of the YOLO network. This approach aims to improve the mean average precision (mAP) of the models, particularly for the YOLOv4 architecture, which has already shown promising results in terms of detection accuracy.</t>
@@ -582,13 +602,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The Light Attention YOLO model achieved a mean accuracy precision of 92% in detecting sheep across different environments, demonstrating its effectiveness in handling overlapping occlusion among sheep groups.
 - The model operates at a detection speed of 28.5 frames per second on a single GTX1080Ti graphics card, fulfilling the requirements for both accuracy and real-time performance in sheep detection and counting.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -602,13 +625,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The proposed algorithm for cattle counting achieved significant improvements in detection performance, with an accuracy of 98.8%, recall of 99.0%, and a mean Average Precision (mAP) value of 92.1%. Compared to mainstream state-of-the-art models, it showed increases in Precision by 0.4%, Recall by 2.0%, and mAP value by 2.2%.
 - The algorithm also demonstrated efficiency gains, with a reduction in model size by 23.9%, a decrease in parameter count by 23.0%, and a lowered computational load by 6.1%, making it suitable for real-time cattle counting in complex ranch environments.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -622,13 +648,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The proposed sheep counting detection system based on the YOLOv5 algorithm demonstrated accurate real-time counting of sheep, effectively recording the number of sheep passing through designated counting lines in both north-south and east-west directions, thus improving the accuracy of sheep management.
 - The system was tested and proved to be stable, reliable, and expandable, significantly reducing the workload of herders and enhancing the efficiency of sheep breeding management by automating the counting process.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve"> - Future research could focus on improving the accuracy and detection speed of the sheep counting system by further optimizing the YOLOv5 algorithm and exploring the integration of additional machine learning techniques, such as Faster R-CNN, to enhance the detection of sheep in various postures and crowded scenarios.
 - Another area for future research could involve the development of more advanced data collection methods and experimental setups that minimize occlusion among sheep, potentially by designing more sophisticated passageways or utilizing multiple camera angles to ensure clearer visibility and separation of individual sheep during counting.</t>
@@ -647,13 +676,16 @@
           <t>deep learning</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The developed system utilizes a DarkNet deep learning model to efficiently classify and detect a variety of wild animals, facilitating better monitoring in their natural habitats and reducing the challenges associated with manual identification.
 - The integration of GSM and GPS devices with Arduino embedded systems enables automatic alerts regarding the presence of animals, which can help prevent animal-vehicle accidents and protect agricultural lands from potential damage caused by wildlife.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve"> - Future research could focus on enhancing the accuracy and efficiency of the animal detection algorithm by exploring advanced deep learning models beyond DarkNet, potentially incorporating techniques such as transfer learning or ensemble methods to improve classification performance across a wider variety of species.
 - Another area for future research could involve the integration of real-time data analytics and machine learning to predict animal movement patterns, which could further aid in preventing animal-vehicle accidents and optimizing agricultural land management strategies.</t>
@@ -672,13 +704,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The improved deep learning model for goat detection and counting achieved a mean Average Precision (mAP) of 92.19%, which is a significant improvement over the original YOLOv5 model's mAP of 84.26%. This enhancement was achieved through various advanced strategies, including data augmentation and improved network representation for multi-scale objects.
 - The proposed method demonstrated an average overlap rate of 89.69% for goat tracking and counting, which is notably higher than the 82.78% overlap rate of the original combination of YOLOv5 and DeepSORT. This improvement supports practical applications by minimizing the chances of double counting through a single-line counting approach based on goat head tracking results.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve"> - Future research could focus on expanding the integrated goat detection and counting method to include a wider variety of goat species beyond the Chengdu Ma goat, ensuring the model's adaptability and effectiveness in diverse farming environments and conditions.
 - Another area for future exploration could involve enhancing the model's performance in challenging environments, such as varying lighting conditions or crowded settings, to further improve the accuracy of goat detection and counting while minimizing the risk of double counting.</t>
@@ -697,13 +732,16 @@
           <t>deep learning</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The model achieved an F1-score of 98.48, indicating a high level of accuracy in recognizing and identifying livestock, specifically pigs, in various captivity scenarios.
 - The mean Average Precision (mAP) values were reported as 99.27 for mAP0.5 and 73.03 for mAP0.5-0.95, demonstrating the model's effectiveness in detecting pigs across different behaviors and conditions.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve"> - Future research could focus on enhancing the image recognition method to accommodate a wider variety of livestock species and behaviors, beyond just pigs, to further support biodiversity preservation and smart farming initiatives.
 - Investigating the integration of the developed recognition system with high accuracy livestock auto-weighing systems could lead to advancements in automated monitoring and management of animal husbandry practices, ultimately improving efficiency and reducing labor costs.</t>
@@ -722,13 +760,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The proposed YOLOv5-SA-FC model achieved a mean average precision (mAP) of 93.8% and a count accuracy of 95.6%, demonstrating high effectiveness in pig detection and counting.
 - The model outperformed other methods by 10.2% in pig detection and 15.8% in counting accuracy, highlighting its superior performance in the context of intelligent pig breeding.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -742,13 +783,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The proposed deep learning-based model demonstrates improved accuracy in detecting and tracking animals, effectively addressing the challenge of crop destruction caused by stray animals, which is a significant issue for farmers.
 - The model is evaluated against various existing solutions and is highlighted for its cost-effectiveness, offering a promising approach to mitigate animal raids on crops through the use of intelligent camera systems and real-time information transfer via IoT.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -762,13 +806,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The proposed method for automatic pig counting demonstrates high accuracy, effectively addressing the challenges of counting pigs in crowded or covered conditions within corridors.
 - The approach utilizes an optimized YOLOv5s detector and an improved DeepSORT algorithm, which enhances detection stability and reduces missed detections, making it suitable for application in breeding farms and contributing to smart pig breeding technologies.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -782,13 +829,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The proposed method for automatic pig counting based on YOLOv5s detector and improved DeepSORT algorithm demonstrates high accuracy in counting pigs, effectively addressing the challenges of crowding and coverage in corridors.
 - The implementation of DIOU_NMS and the CA model in the tracking algorithm significantly enhances the stability of detection boxes and improves the prediction results of trajectories, leading to a reduction in missed detections of multiple pigs.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -802,13 +852,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The improved YOLOv7 model, when combined with DeepSORT, achieved an average accuracy of 96.58% in dynamic counting experiments across various video datasets, with errors of -3, -3, -4, and -26 for total pig counts of 144, 201, 285, and 295, respectively. This indicates the model's effectiveness in real-time pig counting in complex environments.
 - The enhancements made to the YOLOv7 model resulted in a mean Average Precision (mAP) increase of 3.24, 0.05, and 1.00 percentage points for oblique, overhead, and all pig counting datasets, respectively, while also reducing the computational cost by 3.6 GFLOPS, demonstrating improved performance over previous models like YOLOv5, YOLOv4, YOLOv3, Faster RCNN, and SSD.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -822,13 +875,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The MPC-YD algorithm achieves an average precision of 99.24% in pig object detection and an accuracy of 85.32% in multitarget pig tracking, demonstrating its effectiveness in accurately identifying and tracking pigs in various environments.
 - In the aisle environment of the slaughterhouse, the MPC-YD algorithm achieves a correlation coefficient (R2) of 98.14% in pig counting from video, indicating its reliability and stability in counting pigs in a breeding environment.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -842,13 +898,16 @@
           <t>deep learning</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The proposed methods, FilterDetector and DLEDetector, achieved significant improvements in animal counting accuracy, outperforming the best method from the iWildCam 2021 competition by 9.09% and the baseline method based on MegaDetector V 4 by 6.44% in the iWildCam 2022 competition test dataset.
 - In the iWildCam 2022 competition, FilterDetector ranked first, while DLEDetector secured the third position, demonstrating the effectiveness of the new deep learning methods for animal counting in camera trap images.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -862,13 +921,16 @@
           <t>deep learning</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The UNet model with EfficientNet-B5 backbone achieved better RMSE (Root Mean Square Error) and MAE (Mean Absolute Error) values of 0.89 and 0.49, respectively, for the African Elephant dataset, showcasing improved performance compared to previous approaches.
 - The model outperformed the count-ception approach, demonstrating the effectiveness of utilizing deep learning techniques for automating animal counting tasks in aerial remote sensing images.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve"> - Future research could focus on extending the current model to count different species of animals, such as those in the Semmacape dataset, which would allow for class-wise counting and provide more detailed insights into wildlife populations.
 - Another potential area for improvement is the application of self-supervised learning techniques to enhance the model's performance. This could involve integrating more powerful loss functions, like contrastive losses, and utilizing model pre-training when a large amount of unlabeled data is available.</t>
@@ -887,13 +949,16 @@
           <t>yolo</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve"> - The PDC-YOLO model achieved a mean Average Precision (mAP) of 91.97%, a precision of 95.11%, and a recall of 89.94% on the collected pig dataset, indicating its high effectiveness in detecting pigs for counting purposes.
 - The model demonstrated a low error rate of 0.002 and significantly outperformed manual counting in terms of speed, showcasing its efficiency in complex farming environments.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
